--- a/Proyectos/2015/12/P1352 - ERA7, JD, María Eugenia Hernández Almaraz_OCFD/Otros Documentos/Estimación de horas_P1352 Adec - ERA7, JD, María Eugenia Hernández Almaraz_OC (3).xlsx
+++ b/Proyectos/2015/12/P1352 - ERA7, JD, María Eugenia Hernández Almaraz_OCFD/Otros Documentos/Estimación de horas_P1352 Adec - ERA7, JD, María Eugenia Hernández Almaraz_OC (3).xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Entregable</t>
   </si>
@@ -241,6 +241,9 @@
   <si>
     <t>Implementacion</t>
   </si>
+  <si>
+    <t>Personalización en la frecuencia de las pólizas en el JoinData de Easy Retail Admin a Contpaq i Contabilidad</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -725,11 +728,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -821,54 +835,10 @@
     <xf numFmtId="14" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,12 +908,76 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1266,7 +1300,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1274,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1013"/>
+  <dimension ref="A1:O1015"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1293,122 +1327,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="14" customFormat="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="64"/>
+      <c r="B1" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46"/>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="64"/>
+      <c r="B2" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="50" t="s">
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="68" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="52" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="70" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="1:9" s="14" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="64" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
     </row>
     <row r="7" spans="1:9" s="14" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="69"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="53" t="s">
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="55" t="s">
+      <c r="G8" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="54"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1423,12 +1457,12 @@
       <c r="A10" s="24">
         <v>1</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="28">
         <v>12</v>
       </c>
@@ -1444,12 +1478,12 @@
       <c r="A11" s="24">
         <v>2</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="28">
         <v>12</v>
       </c>
@@ -1465,12 +1499,12 @@
       <c r="A12" s="24">
         <v>3</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="32">
         <v>18</v>
       </c>
@@ -1486,12 +1520,12 @@
       <c r="A13" s="24">
         <v>4</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
       <c r="F13" s="32">
         <v>27</v>
       </c>
@@ -1507,12 +1541,12 @@
       <c r="A14" s="24">
         <v>5</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="32">
         <v>21</v>
       </c>
@@ -1528,12 +1562,12 @@
       <c r="A15" s="24">
         <v>6</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="32">
         <v>18</v>
       </c>
@@ -1549,12 +1583,12 @@
       <c r="A16" s="24">
         <v>7</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
       <c r="F16" s="32">
         <v>12</v>
       </c>
@@ -1570,12 +1604,12 @@
       <c r="A17" s="24">
         <v>8</v>
       </c>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="32">
         <v>12</v>
       </c>
@@ -1591,12 +1625,12 @@
       <c r="A18" s="24">
         <v>9</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="32">
         <v>12</v>
       </c>
@@ -1608,111 +1642,116 @@
       </c>
       <c r="I18" s="34"/>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>10</v>
       </c>
-      <c r="B19" s="77" t="s">
-        <v>43</v>
+      <c r="B19" s="84" t="s">
+        <v>44</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="86"/>
       <c r="F19" s="30">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G19" s="31">
         <v>42380</v>
       </c>
       <c r="H19" s="31">
-        <v>42380</v>
+        <v>42384</v>
       </c>
-      <c r="I19" s="29">
-        <v>42380</v>
+      <c r="I19" s="34"/>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E20" s="1" t="s">
+      <c r="B20" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="30">
+        <v>4</v>
+      </c>
+      <c r="G20" s="29">
+        <v>42387</v>
+      </c>
+      <c r="H20" s="29">
+        <v>42387</v>
+      </c>
+      <c r="I20" s="29">
+        <v>42387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="82"/>
+      <c r="I21" s="83"/>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="2">
-        <f>SUM(F10:F19)</f>
-        <v>148</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="26">
-        <f>F20/15</f>
-        <v>9.8666666666666671</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="22">
-        <f>F21/5</f>
-        <v>1.9733333333333334</v>
+      <c r="F22" s="2">
+        <f>SUM(F10:F20)</f>
+        <v>178</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="26">
+        <f>F22/15</f>
+        <v>11.866666666666667</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="8"/>
-      <c r="H24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="22">
+        <f>F23/5</f>
+        <v>2.3733333333333335</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1720,15 +1759,8 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1736,15 +1768,17 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="A27" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1752,45 +1786,47 @@
       <c r="O27" s="3"/>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="71"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
-      <c r="F29" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="43"/>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="17"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="19"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="21"/>
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -1798,12 +1834,16 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="21"/>
+      <c r="B31" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74"/>
+      <c r="F31" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -1850,16 +1890,12 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B35" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="F35" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="40"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="21"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -1867,8 +1903,12 @@
       <c r="O35" s="3"/>
     </row>
     <row r="36" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F36" s="9"/>
-      <c r="H36" s="3"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="21"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -1876,8 +1916,16 @@
       <c r="O36" s="3"/>
     </row>
     <row r="37" spans="2:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="F37" s="9"/>
-      <c r="H37" s="3"/>
+      <c r="B37" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="73"/>
+      <c r="D37" s="74"/>
+      <c r="F37" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -10668,34 +10716,53 @@
       <c r="N1013" s="3"/>
       <c r="O1013" s="3"/>
     </row>
+    <row r="1014" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1014" s="9"/>
+      <c r="H1014" s="3"/>
+      <c r="K1014" s="3"/>
+      <c r="L1014" s="3"/>
+      <c r="M1014" s="3"/>
+      <c r="N1014" s="3"/>
+      <c r="O1014" s="3"/>
+    </row>
+    <row r="1015" spans="6:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1015" s="9"/>
+      <c r="H1015" s="3"/>
+      <c r="K1015" s="3"/>
+      <c r="L1015" s="3"/>
+      <c r="M1015" s="3"/>
+      <c r="N1015" s="3"/>
+      <c r="O1015" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
+  <mergeCells count="27">
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="A27:I28"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B2:H5"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="B8:E9"/>
     <mergeCell ref="F6:I7"/>
     <mergeCell ref="A6:E7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B2:H5"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A25:I26"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
